--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128550C6-AEF3-4549-A21B-A33AB13F86A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5A86C-9D0B-41FC-B43D-98F2CF9B933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35532" yWindow="2340" windowWidth="23040" windowHeight="12204" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
     <sheet name="示例part2|Example" sheetId="2" r:id="rId2"/>
     <sheet name="目标|Goal" sheetId="3" r:id="rId3"/>
     <sheet name="角色|Role" sheetId="4" r:id="rId4"/>
-    <sheet name="Buff" sheetId="5" r:id="rId5"/>
+    <sheet name="掉落|Drop" sheetId="6" r:id="rId5"/>
+    <sheet name="Buff" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,90 @@
   </si>
   <si>
     <t>备注描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型:1, 2, 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHU_JI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHONG_JI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAO_JI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DA_WANG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QIAN_NIAN_LAO_LIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEI_SUO_XIAN_SHENG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAI_SE_QING_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LA_PI_TIAO_DE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAO_AN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GUO_JIA_LING_XIU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8, 9, 10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6, 7, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10, 11, 2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_key(Role.Id)|check_value(Buff.Id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,17 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A1:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
@@ -616,13 +702,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -636,95 +716,169 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>5</v>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>9</v>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>10</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -735,15 +889,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -841,115 +1004,207 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>5</v>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>7</v>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>10</v>
+      <c r="B16" s="1">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1453,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41914CF2-4C6D-454C-A0C8-D0B18EDC54DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F5A86C-9D0B-41FC-B43D-98F2CF9B933D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0A685-1A83-4823-A009-1787C0647CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-420" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check_not_empty()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,7 +600,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -704,6 +712,9 @@
       <c r="A4" t="s">
         <v>56</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
@@ -719,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -729,9 +740,6 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
@@ -786,6 +794,7 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -796,6 +805,9 @@
       </c>
       <c r="D10" t="s">
         <v>39</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E0A685-1A83-4823-A009-1787C0647CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7110AE19-B801-4B57-9AAC-94F35E204DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="3000" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置表生成的版本：客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,12 +604,12 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -617,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service_common\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\output\vs2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7110AE19-B801-4B57-9AAC-94F35E204DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0E9EA-3070-4975-A97E-02A5F95AD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="3828" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check_key(Role.Id)|check_value(Buff.Id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>校验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,6 +265,14 @@
   </si>
   <si>
     <t>配置表生成的版本：客户端/服务端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>da</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dafa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -621,7 +625,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -714,10 +718,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -734,7 +738,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -837,6 +841,12 @@
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -907,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1030,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1028,19 +1050,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\output\vs2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A0E9EA-3070-4975-A97E-02A5F95AD763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31FC59-2E8F-4DE4-8373-F46E121B36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="3828" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>dafa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{155:155, }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,7 +612,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -917,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1109,6 +1113,9 @@
       <c r="E8" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -1246,7 +1253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB3BE2-8EAB-4BFA-B4A2-DE34CC10B52E}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1499,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service_common\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF31FC59-2E8F-4DE4-8373-F46E121B36D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A2A33-1962-46C7-A271-68FA60114A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array[int]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_index(Goal.Id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -124,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict&lt;int, int&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>check_key(Role.Id)|check_index(Buff.Id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +269,14 @@
   </si>
   <si>
     <t>{155:155, }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int32, int32&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -673,19 +673,19 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -702,19 +702,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -722,19 +722,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -764,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -816,7 +816,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -844,13 +844,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -886,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +922,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -985,19 +985,19 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1014,19 +1014,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1034,19 +1034,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1079,22 +1079,22 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1108,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,10 +1139,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,10 +1156,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1170,10 +1170,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,10 +1184,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1198,10 +1198,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1215,10 +1215,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1251,16 +1251,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB3BE2-8EAB-4BFA-B4A2-DE34CC10B52E}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1309,19 +1312,19 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1338,19 +1341,19 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -1358,114 +1361,131 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>2</v>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B11" s="1">
         <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B15" s="1">
         <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>10</v>
       </c>
     </row>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A2A33-1962-46C7-A271-68FA60114A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB2816-3DDD-409B-85EA-CF379DB4CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,46 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHU_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZHONG_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAO_JI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DA_WANG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QIAN_NIAN_LAO_LIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEI_SUO_XIAN_SHENG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAI_SE_QING_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LA_PI_TIAO_DE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BAO_AN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GUO_JIA_LING_XIU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1, 2, 3, 4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,6 +237,90 @@
   </si>
   <si>
     <t>dict&lt;int32, int32&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"CHU_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ZHONG_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GAO_JI"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"DA_WANG"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"QIAN_NIAN_LAO_LIU"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"WEI_SUO_XIAN_SHENG"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"MAI_SE_QING_DE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"LA_PI_TIAO_DE"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"BAO_AN"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GUO_JIA_LING_XIU"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict&lt;int32, string&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1:1000, 2:125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 5, 8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":"NI_HAO", "2":"GAN"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":[1, 5, 6], "200":[9,10]}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":{5:[1, 5], "2":[55, 69]}, "200":{6:[9,10], "8":[1,2]} }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":1000, "2":125}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"100":{"5":[1, 5], "2":[55, 69]}, "200":{"6":[9,10], "8":[1,2]} }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,9 +370,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -609,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -622,14 +669,15 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -655,8 +703,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -673,22 +724,25 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -702,61 +756,64 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -773,16 +830,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,10 +853,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2</v>
       </c>
@@ -804,11 +876,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -816,13 +902,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10">
+        <v>54</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -833,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -844,16 +933,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -861,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -872,10 +961,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -886,10 +975,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>9</v>
       </c>
@@ -897,7 +986,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -908,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +1011,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1014,10 +1103,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1034,10 +1123,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1054,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1108,13 +1197,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,10 +1214,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1139,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1156,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1170,10 +1259,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,10 +1273,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1198,10 +1287,10 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1215,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1229,7 +1318,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1240,7 +1329,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1254,14 +1343,17 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1341,10 +1433,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1361,10 +1453,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -1403,8 +1495,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1526,7 +1618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56DA1D9-DFB7-429C-A7FD-58E60AF9E570}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BB2816-3DDD-409B-85EA-CF379DB4CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946925C-248B-456D-8D6A-6583BD621D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7032" yWindow="4128" windowWidth="23040" windowHeight="9240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="71">
   <si>
     <t>客户端/服务端</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,18 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>da</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dafa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{155:155, }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>array[int32]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,6 +309,10 @@
   </si>
   <si>
     <t>{"100":{"5":[1, 5], "2":[55, 69]}, "200":{"6":[9,10], "8":[1,2]} }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"155":155, }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -724,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -756,13 +748,13 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -830,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -853,19 +845,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -876,22 +868,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -902,13 +894,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -922,7 +911,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -933,13 +922,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -950,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -961,7 +944,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -975,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -986,7 +969,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -997,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1008,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1021,14 +1004,15 @@
     <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,8 +1040,11 @@
       <c r="I1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1074,22 +1061,25 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1103,25 +1093,28 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1131,14 +1124,14 @@
       <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1149,18 +1142,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1177,16 +1170,19 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1197,16 +1193,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>12</v>
       </c>
@@ -1214,13 +1213,16 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>13</v>
       </c>
@@ -1228,13 +1230,13 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1245,13 +1247,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>15</v>
       </c>
@@ -1259,13 +1261,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>16</v>
       </c>
@@ -1273,13 +1275,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>17</v>
       </c>
@@ -1287,13 +1289,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1304,13 +1306,13 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>19</v>
       </c>
@@ -1318,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -1329,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1345,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1433,10 +1435,10 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
@@ -1496,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/service_common/config/xlsx/example.xlsx
+++ b/service_common/config/xlsx/example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service_common\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946925C-248B-456D-8D6A-6583BD621D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A223BA21-ADC0-415F-83BE-5BA820C0B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7032" yWindow="4128" windowWidth="23040" windowHeight="9240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="示例part1|Example" sheetId="1" r:id="rId1"/>
@@ -650,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -986,6 +986,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -993,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F5941D-3FB6-445E-BA52-3EB973D766E4}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
